--- a/data/download_SH512800.xlsx
+++ b/data/download_SH512800.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1833"/>
+  <dimension ref="A1:F1834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44433,6 +44433,30 @@
         <v>1.49</v>
       </c>
     </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1834" t="n">
+        <v>1.481</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512800.xlsx
+++ b/data/download_SH512800.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1834"/>
+  <dimension ref="A1:F1838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44457,6 +44457,102 @@
         <v>1.48</v>
       </c>
     </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1835" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>1.466</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1836" t="n">
+        <v>1.478</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1837" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>1.469</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1838" t="n">
+        <v>1.491</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512800.xlsx
+++ b/data/download_SH512800.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1838"/>
+  <dimension ref="A1:F1839"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44541,7 +44541,7 @@
         </is>
       </c>
       <c r="C1838" t="n">
-        <v>1.491</v>
+        <v>1.489</v>
       </c>
       <c r="D1838" t="n">
         <v>1.493</v>
@@ -44550,7 +44550,31 @@
         <v>1.504</v>
       </c>
       <c r="F1838" t="n">
-        <v>1.49</v>
+        <v>1.488</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1839" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>1.476</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH512800.xlsx
+++ b/data/download_SH512800.xlsx
@@ -44565,7 +44565,7 @@
         </is>
       </c>
       <c r="C1839" t="n">
-        <v>1.484</v>
+        <v>1.486</v>
       </c>
       <c r="D1839" t="n">
         <v>1.489</v>

--- a/data/download_SH512800.xlsx
+++ b/data/download_SH512800.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1839"/>
+  <dimension ref="A1:F1875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44577,6 +44577,870 @@
         <v>1.476</v>
       </c>
     </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1840" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1841" t="n">
+        <v>1.509</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>1.483</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1842" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>1.493</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1843" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>1.509</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>1.495</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1844" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>1.486</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1845" t="n">
+        <v>1.498</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>1.482</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1846" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>1.489</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1847" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>1.509</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>1.496</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1848" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>1.529</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>1.501</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1849" t="n">
+        <v>1.527</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>1.523</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>1.533</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>1.518</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1850" t="n">
+        <v>1.524</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>1.529</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>1.521</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1851" t="n">
+        <v>1.547</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>1.524</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>1.547</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>1.524</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1852" t="n">
+        <v>1.537</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>1.546</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>1.532</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1853" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>1.534</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>1.516</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1854" t="n">
+        <v>1.532</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>1.535</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>1.517</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1855" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>1.542</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1856" t="n">
+        <v>1.517</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>1.535</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>1.514</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1857" t="n">
+        <v>1.523</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>1.516</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>1.513</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1858" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>1.523</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>1.515</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1859" t="n">
+        <v>1.524</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>1.534</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>1.506</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1860" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="F1860" t="n">
+        <v>1.507</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1861" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="D1861" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="E1861" t="n">
+        <v>1.532</v>
+      </c>
+      <c r="F1861" t="n">
+        <v>1.512</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1862" t="n">
+        <v>1.533</v>
+      </c>
+      <c r="D1862" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="E1862" t="n">
+        <v>1.535</v>
+      </c>
+      <c r="F1862" t="n">
+        <v>1.518</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1863" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="F1863" t="n">
+        <v>1.423</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1864" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>1.469</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="F1864" t="n">
+        <v>1.458</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1865" t="n">
+        <v>1.472</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="F1865" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1866" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>1.472</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="F1866" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1867" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>1.478</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="F1867" t="n">
+        <v>1.472</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1868" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1868" t="n">
+        <v>1.485</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1869" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="D1869" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="E1869" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>1.492</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1870" t="n">
+        <v>1.532</v>
+      </c>
+      <c r="D1870" t="n">
+        <v>1.517</v>
+      </c>
+      <c r="E1870" t="n">
+        <v>1.535</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>1.512</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1871" t="n">
+        <v>1.533</v>
+      </c>
+      <c r="D1871" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="E1871" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>1.515</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1872" t="n">
+        <v>1.548</v>
+      </c>
+      <c r="D1872" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E1872" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1873" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="D1873" t="n">
+        <v>1.546</v>
+      </c>
+      <c r="E1873" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>1.527</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1874" t="n">
+        <v>1.541</v>
+      </c>
+      <c r="D1874" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="E1874" t="n">
+        <v>1.542</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>1.528</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1875" t="n">
+        <v>1.533</v>
+      </c>
+      <c r="D1875" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E1875" t="n">
+        <v>1.542</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>1.529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512800.xlsx
+++ b/data/download_SH512800.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1875"/>
+  <dimension ref="A1:F1877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45441,6 +45441,54 @@
         <v>1.529</v>
       </c>
     </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1876" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D1876" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E1876" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1877" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="D1877" t="n">
+        <v>1.551</v>
+      </c>
+      <c r="E1877" t="n">
+        <v>1.557</v>
+      </c>
+      <c r="F1877" t="n">
+        <v>1.536</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH512800.xlsx
+++ b/data/download_SH512800.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1877"/>
+  <dimension ref="A1:F1882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45489,6 +45489,126 @@
         <v>1.536</v>
       </c>
     </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1878" t="n">
+        <v>1.558</v>
+      </c>
+      <c r="D1878" t="n">
+        <v>1.544</v>
+      </c>
+      <c r="E1878" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>1.542</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1879" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="D1879" t="n">
+        <v>1.556</v>
+      </c>
+      <c r="E1879" t="n">
+        <v>1.565</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1880" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D1880" t="n">
+        <v>1.548</v>
+      </c>
+      <c r="E1880" t="n">
+        <v>1.549</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>1.515</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1881" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="D1881" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="E1881" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>1.508</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>SH512800</t>
+        </is>
+      </c>
+      <c r="C1882" t="n">
+        <v>1.542</v>
+      </c>
+      <c r="D1882" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="E1882" t="n">
+        <v>1.543</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>1.519</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
